--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BEB0D4-4652-4D2D-A014-2F5C10CBF351}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -223,12 +224,147 @@
   </si>
   <si>
     <t>26.04%</t>
+  </si>
+  <si>
+    <t>65.39%</t>
+  </si>
+  <si>
+    <t>55.08%</t>
+  </si>
+  <si>
+    <t>Pipeline 11</t>
+  </si>
+  <si>
+    <t>CountVectorizer((1,2) gram)</t>
+  </si>
+  <si>
+    <t>95.39%</t>
+  </si>
+  <si>
+    <t>93.97%</t>
+  </si>
+  <si>
+    <t>69.94%</t>
+  </si>
+  <si>
+    <t>57.13%</t>
+  </si>
+  <si>
+    <t>Multinomial Naive Bayes</t>
+  </si>
+  <si>
+    <t>CountVectorizer(ngram (1,3))</t>
+  </si>
+  <si>
+    <t>97.70%</t>
+  </si>
+  <si>
+    <t>94.76%</t>
+  </si>
+  <si>
+    <t>83.18%</t>
+  </si>
+  <si>
+    <t>56.35%</t>
+  </si>
+  <si>
+    <t>Pipeline 12</t>
+  </si>
+  <si>
+    <t>CountVectorizer(ngram (1,2), stop_words='english')</t>
+  </si>
+  <si>
+    <t>97.48%</t>
+  </si>
+  <si>
+    <t>94.70%</t>
+  </si>
+  <si>
+    <t>81.49%</t>
+  </si>
+  <si>
+    <t>53.11%</t>
+  </si>
+  <si>
+    <t>CountVectorizer(Lematizer,ngram (2,3))</t>
+  </si>
+  <si>
+    <t>97.65%</t>
+  </si>
+  <si>
+    <t>94.81%</t>
+  </si>
+  <si>
+    <t>82.68%</t>
+  </si>
+  <si>
+    <t>51.35%</t>
+  </si>
+  <si>
+    <t>CountVectorizer(Lematizer,ngram (2,3),stop_words='english')</t>
+  </si>
+  <si>
+    <t>99.31%</t>
+  </si>
+  <si>
+    <t>94.57%</t>
+  </si>
+  <si>
+    <t>94.36%</t>
+  </si>
+  <si>
+    <t>35.80%</t>
+  </si>
+  <si>
+    <t>CountVectorizer(Lematizer, ngram (1,2))</t>
+  </si>
+  <si>
+    <t>94.39%</t>
+  </si>
+  <si>
+    <t>93.13%</t>
+  </si>
+  <si>
+    <t>66.23%</t>
+  </si>
+  <si>
+    <t>56.59%</t>
+  </si>
+  <si>
+    <t>TfidfVectorizer(2-gram)</t>
+  </si>
+  <si>
+    <t>94.86%</t>
+  </si>
+  <si>
+    <t>93.36%</t>
+  </si>
+  <si>
+    <t>68.40%</t>
+  </si>
+  <si>
+    <t>56.93%</t>
+  </si>
+  <si>
+    <t>Pipeline 13</t>
+  </si>
+  <si>
+    <t>Pipeline 14</t>
+  </si>
+  <si>
+    <t>Pipeline 15</t>
+  </si>
+  <si>
+    <t>Pipeline 16</t>
+  </si>
+  <si>
+    <t>Pipeline 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,6 +425,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +719,7 @@
     <col min="3" max="3" width="37.5546875" customWidth="1"/>
     <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -906,6 +1043,12 @@
       <c r="H11" t="s">
         <v>35</v>
       </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -963,6 +1106,230 @@
       </c>
       <c r="J13" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BEB0D4-4652-4D2D-A014-2F5C10CBF351}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B89D1-DA49-4D81-A21C-C10DEDB9D9FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="142">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -139,12 +139,6 @@
     <t>CountVectorizer(3-gram)</t>
   </si>
   <si>
-    <t>95.41%</t>
-  </si>
-  <si>
-    <t>95.12%</t>
-  </si>
-  <si>
     <t>XGBoost</t>
   </si>
   <si>
@@ -359,13 +353,106 @@
   </si>
   <si>
     <t>Pipeline 17</t>
+  </si>
+  <si>
+    <t>54.30%</t>
+  </si>
+  <si>
+    <t>74.08%</t>
+  </si>
+  <si>
+    <t>95.53%</t>
+  </si>
+  <si>
+    <t>97.26%</t>
+  </si>
+  <si>
+    <t>Pipeline 18</t>
+  </si>
+  <si>
+    <t>Pipeline 19</t>
+  </si>
+  <si>
+    <t>Pipeline 20</t>
+  </si>
+  <si>
+    <t>Pipeline 21</t>
+  </si>
+  <si>
+    <t>Delete "?"</t>
+  </si>
+  <si>
+    <t>[^a-zA-Z]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10 epochs</t>
+  </si>
+  <si>
+    <t>300 features</t>
+  </si>
+  <si>
+    <t>Word2Vec v1</t>
+  </si>
+  <si>
+    <t>43.23%</t>
+  </si>
+  <si>
+    <t>42.84%</t>
+  </si>
+  <si>
+    <t>20 epochs</t>
+  </si>
+  <si>
+    <t>94.71%</t>
+  </si>
+  <si>
+    <t>94.67%</t>
+  </si>
+  <si>
+    <t>43.47%</t>
+  </si>
+  <si>
+    <t>43.07%</t>
+  </si>
+  <si>
+    <t>200 features</t>
+  </si>
+  <si>
+    <t>94.66%</t>
+  </si>
+  <si>
+    <t>94.63%</t>
+  </si>
+  <si>
+    <t>42.60%</t>
+  </si>
+  <si>
+    <t>42.24%</t>
+  </si>
+  <si>
+    <t>250 features</t>
+  </si>
+  <si>
+    <t>94.74%</t>
+  </si>
+  <si>
+    <t>94.69%</t>
+  </si>
+  <si>
+    <t>43.91%</t>
+  </si>
+  <si>
+    <t>43.45%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +470,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -410,12 +505,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,7 +521,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,49 +802,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
@@ -762,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,18 +884,18 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -817,21 +913,21 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -852,18 +948,18 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -878,24 +974,24 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -916,18 +1012,18 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -948,18 +1044,18 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -974,24 +1070,24 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1009,21 +1105,21 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1044,18 +1140,18 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1070,18 +1166,24 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1093,30 +1195,30 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -1125,30 +1227,30 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>73</v>
       </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -1157,30 +1259,30 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
         <v>76</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
         <v>78</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -1189,30 +1291,30 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
         <v>84</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>85</v>
       </c>
-      <c r="I16" t="s">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>86</v>
-      </c>
-      <c r="J16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -1221,30 +1323,30 @@
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
         <v>89</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
         <v>91</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -1253,30 +1355,30 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
         <v>94</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>95</v>
       </c>
-      <c r="I18" t="s">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>96</v>
-      </c>
-      <c r="J18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -1285,30 +1387,30 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>100</v>
       </c>
-      <c r="I19" t="s">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
         <v>101</v>
-      </c>
-      <c r="J19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -1317,19 +1419,148 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
         <v>104</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>105</v>
       </c>
-      <c r="I20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" t="s">
-        <v>107</v>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2FAA13-ADFB-4E8B-BA07-99B9B04CA6A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A988080-6405-429C-B494-95208170DFC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
   <si>
     <t>Preprocessing</t>
   </si>
@@ -367,9 +367,6 @@
     <t>Pipeline 18</t>
   </si>
   <si>
-    <t>[^a-zA-Z]</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>300 features</t>
   </si>
   <si>
-    <t>Word2Vec v1</t>
-  </si>
-  <si>
     <t>0.432</t>
   </si>
   <si>
@@ -455,13 +449,40 @@
   </si>
   <si>
     <t>0.572</t>
+  </si>
+  <si>
+    <t>Lower only</t>
+  </si>
+  <si>
+    <t>Pipeline 23</t>
+  </si>
+  <si>
+    <t>Pipeline 24</t>
+  </si>
+  <si>
+    <t>Word2Vec</t>
+  </si>
+  <si>
+    <t>94.65%</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>94.72%</t>
+  </si>
+  <si>
+    <t>0.435</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,23 +832,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -847,7 +868,7 @@
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -867,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,7 +920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -931,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -963,7 +984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -995,7 +1016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1059,7 +1080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1091,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1123,7 +1144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1155,7 +1176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1187,7 +1208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1219,7 +1240,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1283,7 +1304,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1315,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -1347,7 +1368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -1379,7 +1400,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -1444,24 +1465,24 @@
       </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
         <v>113</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>114</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>115</v>
       </c>
-      <c r="E21" t="s">
-        <v>116</v>
-      </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -1470,123 +1491,123 @@
         <v>86</v>
       </c>
       <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J21" t="s">
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
         <v>120</v>
       </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>121</v>
       </c>
-      <c r="E22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>122</v>
-      </c>
-      <c r="H22" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" t="s">
-        <v>124</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" t="s">
         <v>125</v>
       </c>
-      <c r="B23" t="s">
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
         <v>113</v>
       </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" t="s">
         <v>131</v>
       </c>
-      <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>132</v>
       </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>133</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I24" t="s">
+      <c r="B25" t="s">
         <v>135</v>
       </c>
-      <c r="J24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15">
-      <c r="A25" s="1" t="s">
+      <c r="C25" t="s">
         <v>136</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>137</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" t="s">
-        <v>140</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
@@ -1595,10 +1616,74 @@
         <v>62</v>
       </c>
       <c r="I25" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
         <v>141</v>
       </c>
-      <c r="J25" t="s">
-        <v>142</v>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A988080-6405-429C-B494-95208170DFC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="157">
   <si>
     <t>Preprocessing</t>
   </si>
@@ -476,12 +475,33 @@
   </si>
   <si>
     <t>0.435</t>
+  </si>
+  <si>
+    <t>Pipeline 25</t>
+  </si>
+  <si>
+    <t>Lower, contractions and punctuations</t>
+  </si>
+  <si>
+    <t>Embedding+Bidirectional GRU</t>
+  </si>
+  <si>
+    <t>96.05%</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>95.71%</t>
+  </si>
+  <si>
+    <t>0.745</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,24 +851,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="37.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -868,7 +888,7 @@
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -888,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -952,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -984,7 +1004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1016,7 +1036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1048,7 +1068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1080,7 +1100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1112,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1144,7 +1164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1176,7 +1196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1208,7 +1228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1240,7 +1260,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1272,7 +1292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1304,7 +1324,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1336,7 +1356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -1368,7 +1388,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -1400,7 +1420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1432,7 +1452,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -1465,7 +1485,7 @@
       </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -1497,7 +1517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
@@ -1529,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
@@ -1561,7 +1581,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>129</v>
       </c>
@@ -1593,7 +1613,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
@@ -1622,7 +1642,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>142</v>
       </c>
@@ -1654,7 +1674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
@@ -1684,6 +1704,35 @@
       </c>
       <c r="J27" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958AC16D-82DD-410F-83DD-FF8EDDF2D839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,18 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
   <si>
     <t>Preprocessing</t>
   </si>
@@ -501,7 +496,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -851,24 +846,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J3" sqref="G3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -888,7 +883,7 @@
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -908,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,7 +935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -972,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1100,7 +1095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1228,7 +1223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1324,7 +1319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -1420,7 +1415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1452,7 +1447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -1485,7 +1480,7 @@
       </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
         <v>114</v>
@@ -1502,7 +1497,7 @@
         <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -1517,7 +1512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
@@ -1525,7 +1520,7 @@
         <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
         <v>119</v>
@@ -1534,7 +1529,7 @@
         <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
         <v>120</v>
@@ -1549,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
@@ -1557,7 +1552,7 @@
         <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
         <v>119</v>
@@ -1566,7 +1561,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
         <v>125</v>
@@ -1581,7 +1576,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>129</v>
       </c>
@@ -1589,7 +1584,7 @@
         <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
         <v>119</v>
@@ -1598,7 +1593,7 @@
         <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>131</v>
@@ -1613,7 +1608,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
@@ -1626,6 +1621,9 @@
       <c r="D25" t="s">
         <v>137</v>
       </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
       <c r="F25" t="s">
         <v>138</v>
       </c>
@@ -1642,7 +1640,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>142</v>
       </c>
@@ -1650,7 +1648,7 @@
         <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
         <v>119</v>
@@ -1659,7 +1657,7 @@
         <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
         <v>125</v>
@@ -1674,7 +1672,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
@@ -1682,7 +1680,7 @@
         <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -1691,7 +1689,7 @@
         <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
         <v>148</v>
@@ -1706,7 +1704,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>150</v>
       </c>
@@ -1718,6 +1716,9 @@
       </c>
       <c r="D28" t="s">
         <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
       </c>
       <c r="F28" t="s">
         <v>152</v>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21615"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958AC16D-82DD-410F-83DD-FF8EDDF2D839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{827D0B50-A257-45B8-89D4-A9B744C63115}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -361,111 +367,111 @@
     <t>Pipeline 18</t>
   </si>
   <si>
+    <t>Lower only</t>
+  </si>
+  <si>
+    <t>Word2Vec</t>
+  </si>
+  <si>
+    <t>10 epochs</t>
+  </si>
+  <si>
+    <t>300 features</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>0.428</t>
+  </si>
+  <si>
+    <t>Pipeline 19</t>
+  </si>
+  <si>
+    <t>20 epochs</t>
+  </si>
+  <si>
+    <t>94.71%</t>
+  </si>
+  <si>
+    <t>94.67%</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>Pipeline 20</t>
+  </si>
+  <si>
+    <t>200 features</t>
+  </si>
+  <si>
+    <t>94.66%</t>
+  </si>
+  <si>
+    <t>94.63%</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>Pipeline 21</t>
+  </si>
+  <si>
+    <t>250 features</t>
+  </si>
+  <si>
+    <t>94.74%</t>
+  </si>
+  <si>
+    <t>94.69%</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>Pipeline 22</t>
+  </si>
+  <si>
+    <t>Capital letters and stop words</t>
+  </si>
+  <si>
+    <t>Keras Tokenizer + padding</t>
+  </si>
+  <si>
+    <t>2 epochs</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>10 epochs</t>
-  </si>
-  <si>
-    <t>300 features</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>Pipeline 19</t>
-  </si>
-  <si>
-    <t>20 epochs</t>
-  </si>
-  <si>
-    <t>94.71%</t>
-  </si>
-  <si>
-    <t>94.67%</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>Pipeline 20</t>
-  </si>
-  <si>
-    <t>200 features</t>
-  </si>
-  <si>
-    <t>94.66%</t>
-  </si>
-  <si>
-    <t>94.63%</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>Pipeline 21</t>
-  </si>
-  <si>
-    <t>250 features</t>
-  </si>
-  <si>
-    <t>94.74%</t>
-  </si>
-  <si>
-    <t>94.69%</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>Pipeline 22</t>
-  </si>
-  <si>
-    <t>Capital letters and stop words</t>
-  </si>
-  <si>
-    <t>Keras Tokenizer + padding</t>
-  </si>
-  <si>
-    <t>2 epochs</t>
-  </si>
-  <si>
     <t>Embedding+LSTM</t>
   </si>
   <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>Lower only</t>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.629</t>
   </si>
   <si>
     <t>Pipeline 23</t>
   </si>
   <si>
+    <t>94.65%</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
     <t>Pipeline 24</t>
   </si>
   <si>
-    <t>Word2Vec</t>
-  </si>
-  <si>
-    <t>94.65%</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
     <t>94.72%</t>
   </si>
   <si>
@@ -484,20 +490,20 @@
     <t>96.05%</t>
   </si>
   <si>
+    <t>95.71%</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
     <t>0.648</t>
-  </si>
-  <si>
-    <t>95.71%</t>
-  </si>
-  <si>
-    <t>0.745</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,21 +855,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J3" sqref="G3:J3"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -883,7 +889,7 @@
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -903,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -967,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -1480,21 +1486,21 @@
       </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1506,126 +1512,126 @@
         <v>86</v>
       </c>
       <c r="I21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
         <v>116</v>
-      </c>
-      <c r="J21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
@@ -1634,59 +1640,59 @@
         <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
         <v>145</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>146</v>
       </c>
-      <c r="J26" t="s">
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1695,7 +1701,7 @@
         <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -1704,7 +1710,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>150</v>
       </c>
@@ -1712,13 +1718,13 @@
         <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
         <v>152</v>
@@ -1727,13 +1733,13 @@
         <v>153</v>
       </c>
       <c r="H28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" t="s">
         <v>155</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>156</v>
-      </c>
-      <c r="J28" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
